--- a/console/Elastic-Compute/Virtual-Machine/computeXlsx/components/elasticNetWork/components/attachNetWork.xlsx
+++ b/console/Elastic-Compute/Virtual-Machine/computeXlsx/components/elasticNetWork/components/attachNetWork.xlsx
@@ -1,25 +1,392 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\8月分配\SN205-LF0028-180821-console_Output-译文-ZZH处理\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10740" windowHeight="7905"/>
+  </bookViews>
   <sheets>
     <sheet name="cn" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+  <si>
+    <t>tips_one</t>
+  </si>
+  <si>
+    <t>After binding the virtual machine with elastic network interface or assigning private IP, you need to log in the virtual machine to configure IP and route; click here to view</t>
+  </si>
+  <si>
+    <t>operation_guide</t>
+  </si>
+  <si>
+    <t>Operation Guide</t>
+  </si>
+  <si>
+    <t>tips_two</t>
+  </si>
+  <si>
+    <t>Different virtual machine types support different number of elastic network interfaces; click here to view</t>
+  </si>
+  <si>
+    <t>detail</t>
+  </si>
+  <si>
+    <t>the details</t>
+  </si>
+  <si>
+    <t>vpc</t>
+  </si>
+  <si>
+    <t>Virtual Private Cloud</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>'Please Select'</t>
+  </si>
+  <si>
+    <t>no_usable_vpc</t>
+  </si>
+  <si>
+    <t>No available VPC--'</t>
+  </si>
+  <si>
+    <t>create_vpc</t>
+  </si>
+  <si>
+    <t>No available VPC, please create new virtual private cloud</t>
+  </si>
+  <si>
+    <t>belonged_subnet</t>
+  </si>
+  <si>
+    <t>Subnet</t>
+  </si>
+  <si>
+    <t>elasticNetWork_quota</t>
+  </si>
+  <si>
+    <t>The Quota of Elastic Network Interface</t>
+  </si>
+  <si>
+    <t>usable_quota</t>
+  </si>
+  <si>
+    <t>Available Quota</t>
+  </si>
+  <si>
+    <t>delete_attribute</t>
+  </si>
+  <si>
+    <t>Delete Attributes</t>
+  </si>
+  <si>
+    <t>del_with_vm</t>
+  </si>
+  <si>
+    <t>Delete on instance termination</t>
+  </si>
+  <si>
+    <t>all_subnet</t>
+  </si>
+  <si>
+    <t>'All Subnets'</t>
+  </si>
+  <si>
+    <t>bind_elasticNetWork_success</t>
+  </si>
+  <si>
+    <t>'Elastic network interface binding task successfully submitted! 'Please refresh the page later'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>为云主机绑定弹性网卡或分配内网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>后，您需登录云主机配置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>及路由，点击查看</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>操作指南</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>不同云主机规格支持弹性网卡数不同，点击查看</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>详细情况</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>私有网络</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>请选择</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>无可用私有网络</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>--'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>无可用私有网络，请新建私有网络</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>所属子网</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>弹性网卡配额</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>可用配额</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>删除属性</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>随实例删除</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>全部子网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>绑定弹性网卡任务提交成功！请稍后手动刷新页面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -42,14 +409,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -374,135 +750,191 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="158.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>tips_one</v>
-      </c>
-      <c r="B1" t="str">
-        <v>为云主机绑定弹性网卡或分配内网IP后，您需登录云主机配置IP及路由，点击查看</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>operation_guide</v>
-      </c>
-      <c r="B2" t="str">
-        <v>操作指南</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>tips_two</v>
-      </c>
-      <c r="B3" t="str">
-        <v>不同云主机规格支持弹性网卡数不同，点击查看</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>detail</v>
-      </c>
-      <c r="B4" t="str">
-        <v>详细情况</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>vpc</v>
-      </c>
-      <c r="B5" t="str">
-        <v>私有网络</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>select</v>
-      </c>
-      <c r="B6" t="str">
-        <v>'请选择'</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>no_usable_vpc</v>
-      </c>
-      <c r="B7" t="str">
-        <v>无可用私有网络--'</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>create_vpc</v>
-      </c>
-      <c r="B8" t="str">
-        <v>无可用私有网络，请新建私有网络</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>belonged_subnet</v>
-      </c>
-      <c r="B9" t="str">
-        <v>所属子网</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>elasticNetWork_quota</v>
-      </c>
-      <c r="B10" t="str">
-        <v>弹性网卡配额</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>usable_quota</v>
-      </c>
-      <c r="B11" t="str">
-        <v>可用配额</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>delete_attribute</v>
-      </c>
-      <c r="B12" t="str">
-        <v>删除属性</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>del_with_vm</v>
-      </c>
-      <c r="B13" t="str">
-        <v>随实例删除</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>all_subnet</v>
-      </c>
-      <c r="B14" t="str">
-        <v>'全部子网'</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>bind_elasticNetWork_success</v>
-      </c>
-      <c r="B15" t="str">
-        <v>'绑定弹性网卡任务提交成功！请稍后手动刷新页面'</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B15"/>
+    <ignoredError sqref="C1:C15 A1:A15" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>